--- a/Previsão do tempo.xlsx
+++ b/Previsão do tempo.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.marte\Documents\UiPath\Prj_CapturaClima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120F5A08-D5D2-48F7-9410-8A00B194DFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{6AA6C53F-8AC4-48C5-9C4B-B0716B8012FE}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191028"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B4718-2D61-4D2D-A9B6-DA1064765997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AA6C53F-8AC4-48C5-9C4B-B0716B8012FE}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,179 +29,134 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <x:si>
-    <x:t xml:space="preserve"> Laguna – SC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Segunda</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Terça </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Quarta </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Quinta </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sexta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabado</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Domingo</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Temperatura </x:t>
-  </x:si>
-  <x:si>
-    <x:t>28°22°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27°22°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27°23°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28°23°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29°23°</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Condições do tempo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tempestades isoladas com raios e trovões</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chuvas com trovoadas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parcialmente nublado</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve"> Laguna – SC</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinta </t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura </t>
+  </si>
+  <si>
+    <t>Condições do tempo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="4" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="2">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,117 +455,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{9F203033-E6C0-4B79-85A1-C39A389C3FFD}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:H3"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <x:selection activeCell="G8" sqref="G8"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.425781" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="39" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="27.855469" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="20.855469" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="6" width="39" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="20.710938" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="39" style="0" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G2" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H2" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G3" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classificação da informação: Uso Interno</x:oddFooter>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F203033-E6C0-4B79-85A1-C39A389C3FFD}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Classificação da informação: Uso Interno</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>